--- a/intlab/集計表.xlsx
+++ b/intlab/集計表.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\so12r\Documents\intlab\intlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551B6985-43E4-4714-ACFE-E8C79459B33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21464218-1DAC-487C-9174-21F7D27B792A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="実験1" sheetId="1" r:id="rId1"/>
+    <sheet name="グラフ1" sheetId="2" r:id="rId1"/>
+    <sheet name="グラフ2" sheetId="3" r:id="rId2"/>
+    <sheet name="実験1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -135,7 +137,368 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -318,7 +681,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-72DB-451B-8AC1-99547C5792F6}"/>
+              <c16:uniqueId val="{00000000-E044-4982-A2FA-E4E982D4954E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -417,7 +780,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-72DB-451B-8AC1-99547C5792F6}"/>
+              <c16:uniqueId val="{00000001-E044-4982-A2FA-E4E982D4954E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -516,7 +879,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-72DB-451B-8AC1-99547C5792F6}"/>
+              <c16:uniqueId val="{00000002-E044-4982-A2FA-E4E982D4954E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -615,7 +978,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-72DB-451B-8AC1-99547C5792F6}"/>
+              <c16:uniqueId val="{00000003-E044-4982-A2FA-E4E982D4954E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -714,7 +1077,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-72DB-451B-8AC1-99547C5792F6}"/>
+              <c16:uniqueId val="{00000004-E044-4982-A2FA-E4E982D4954E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -813,7 +1176,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-72DB-451B-8AC1-99547C5792F6}"/>
+              <c16:uniqueId val="{00000005-E044-4982-A2FA-E4E982D4954E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -914,7 +1277,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-72DB-451B-8AC1-99547C5792F6}"/>
+              <c16:uniqueId val="{00000006-E044-4982-A2FA-E4E982D4954E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1105,11 +1468,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1295,7 +1653,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-830D-4089-9CD5-3EEE2871441D}"/>
+              <c16:uniqueId val="{00000000-4E5B-4C24-AE64-4744FC153F44}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1442,6 +1800,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1471,11 +1860,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2591,31 +2975,45 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0772F03E-5FC6-4DC3-BA50-C0811F52C6ED}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="108" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{40454BCE-AAEB-436D-AA29-5BB0723DD129}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="108" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8660694" cy="6285324"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2">
+        <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9972A1D5-3082-AC1E-E580-E58E7D919CF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C62D7E-A6B3-88A8-E200-1E64EA86DF97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2628,30 +3026,27 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8660694" cy="6285324"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3">
+        <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D212B0F-9E00-9136-34F6-B4639A5FBBF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E1998F-1023-5F54-3EBF-179033274853}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2659,12 +3054,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2993,7 +3388,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C15" sqref="C15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3423,10 +3818,33 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C7:I7">
+    <cfRule type="top10" dxfId="7" priority="8" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:I8">
+    <cfRule type="top10" dxfId="6" priority="7" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:I9">
+    <cfRule type="top10" dxfId="5" priority="6" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:I10">
+    <cfRule type="top10" dxfId="4" priority="5" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:I11">
+    <cfRule type="top10" dxfId="3" priority="4" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:I12">
+    <cfRule type="top10" dxfId="2" priority="3" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:I13">
+    <cfRule type="top10" dxfId="1" priority="2" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:I14">
+    <cfRule type="top10" dxfId="0" priority="1" rank="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1 A13:A14 A10:A12 A7 A8 A9 A6:J6 A4:I4 A5:I5 A2:I3 C1:J1" numberStoredAsText="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>